--- a/assignments/ds_presentation/PresentationReview.xlsx
+++ b/assignments/ds_presentation/PresentationReview.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="440" windowWidth="33840" windowHeight="27480" tabRatio="500"/>
+    <workbookView xWindow="3760" yWindow="440" windowWidth="33840" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Your name:</t>
   </si>
@@ -154,6 +154,66 @@
   </si>
   <si>
     <t>Oct 18 - 0</t>
+  </si>
+  <si>
+    <t>Paul Hovley</t>
+  </si>
+  <si>
+    <t>TJ Murphy</t>
+  </si>
+  <si>
+    <t>Justin Jamison</t>
+  </si>
+  <si>
+    <t>Ali WIlkin</t>
+  </si>
+  <si>
+    <t>Alex Vance</t>
+  </si>
+  <si>
+    <t>Dustin Belliston</t>
+  </si>
+  <si>
+    <t>Jameson Ricks</t>
+  </si>
+  <si>
+    <t>Matt Rider</t>
+  </si>
+  <si>
+    <t>Nathan Johnson</t>
+  </si>
+  <si>
+    <t>Jordan Rader</t>
+  </si>
+  <si>
+    <t>Bruce Hansen</t>
+  </si>
+  <si>
+    <t>Michael Perry</t>
+  </si>
+  <si>
+    <t>Kyle Longhurst</t>
+  </si>
+  <si>
+    <t>Derek Brimley</t>
+  </si>
+  <si>
+    <t>Tanner Sawyer</t>
+  </si>
+  <si>
+    <t>Tyler doermann</t>
+  </si>
+  <si>
+    <t>Braden Casperson</t>
+  </si>
+  <si>
+    <t>Sean Ashcraft</t>
+  </si>
+  <si>
+    <t>Derik Hasvold</t>
+  </si>
+  <si>
+    <t>John Turner</t>
   </si>
 </sst>
 </file>
@@ -313,12 +373,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -345,6 +399,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -666,7 +726,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,24 +738,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -716,17 +776,17 @@
     </row>
     <row r="4" spans="1:9" ht="78" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="2"/>
@@ -735,411 +795,451 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>3</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <f>SUM(D7:F7)</f>
         <v>9</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10">
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8">
         <f t="shared" ref="G8:G27" si="0">SUM(D8:F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="8"/>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="8"/>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="8"/>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="8"/>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="8"/>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="8"/>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="8"/>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="8"/>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="8"/>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="8"/>
+      <c r="B26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="8"/>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12" t="e">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10" t="e">
         <f>AVERAGEIF(D8:D27, "&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="12" t="e">
+      <c r="E28" s="10" t="e">
         <f>AVERAGEIF(E8:E27, "&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="12" t="e">
+      <c r="F28" s="10" t="e">
         <f>AVERAGEIF(F8:F27, "&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="10" t="e">
+      <c r="G28" s="8" t="e">
         <f>AVERAGEIF(G8:G27, "&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
